--- a/document/tmp/04_単体テスト仕様書/01_単体テスト仕様書テンプレート.xlsx
+++ b/document/tmp/04_単体テスト仕様書/01_単体テスト仕様書テンプレート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\pythonbase\pythonbase\document\tmp\04_単体テスト仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\pythonbase\document\tmp\04_単体テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E685A3B-7E81-421D-964F-57C38ABD5B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF57DC7-FE0D-4688-81C8-3AE89BD46516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,17 +171,21 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -471,103 +475,103 @@
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="2:96" ht="32.5">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="1"/>
-      <c r="BF3" s="1"/>
-      <c r="BG3" s="1"/>
-      <c r="BH3" s="1"/>
-      <c r="BI3" s="1"/>
-      <c r="BJ3" s="1"/>
-      <c r="BK3" s="1"/>
-      <c r="BL3" s="1"/>
-      <c r="BM3" s="1"/>
-      <c r="BN3" s="1"/>
-      <c r="BO3" s="1"/>
-      <c r="BP3" s="1"/>
-      <c r="BQ3" s="1"/>
-      <c r="BR3" s="1"/>
-      <c r="BS3" s="1"/>
-      <c r="BT3" s="1"/>
-      <c r="BU3" s="1"/>
-      <c r="BV3" s="1"/>
-      <c r="BW3" s="1"/>
-      <c r="BX3" s="1"/>
-      <c r="BY3" s="1"/>
-      <c r="BZ3" s="1"/>
-      <c r="CA3" s="1"/>
-      <c r="CB3" s="1"/>
-      <c r="CC3" s="1"/>
-      <c r="CD3" s="1"/>
-      <c r="CE3" s="1"/>
-      <c r="CF3" s="1"/>
-      <c r="CG3" s="1"/>
-      <c r="CH3" s="1"/>
-      <c r="CI3" s="1"/>
-      <c r="CJ3" s="1"/>
-      <c r="CK3" s="1"/>
-      <c r="CL3" s="1"/>
-      <c r="CM3" s="1"/>
-      <c r="CN3" s="1"/>
-      <c r="CO3" s="1"/>
-      <c r="CP3" s="1"/>
-      <c r="CQ3" s="1"/>
-      <c r="CR3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BM3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BQ3" s="2"/>
+      <c r="BR3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BT3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BV3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BY3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CA3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CC3" s="2"/>
+      <c r="CD3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CF3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CH3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="2"/>
+      <c r="CL3" s="2"/>
+      <c r="CM3" s="2"/>
+      <c r="CN3" s="2"/>
+      <c r="CO3" s="2"/>
+      <c r="CP3" s="2"/>
+      <c r="CQ3" s="2"/>
+      <c r="CR3" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -589,107 +593,107 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="1.58203125" style="2"/>
+    <col min="1" max="16384" width="1.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:96" ht="32.5">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
-      <c r="BH2" s="1"/>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1"/>
-      <c r="BK2" s="1"/>
-      <c r="BL2" s="1"/>
-      <c r="BM2" s="1"/>
-      <c r="BN2" s="1"/>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
-      <c r="BQ2" s="1"/>
-      <c r="BR2" s="1"/>
-      <c r="BS2" s="1"/>
-      <c r="BT2" s="1"/>
-      <c r="BU2" s="1"/>
-      <c r="BV2" s="1"/>
-      <c r="BW2" s="1"/>
-      <c r="BX2" s="1"/>
-      <c r="BY2" s="1"/>
-      <c r="BZ2" s="1"/>
-      <c r="CA2" s="1"/>
-      <c r="CB2" s="1"/>
-      <c r="CC2" s="1"/>
-      <c r="CD2" s="1"/>
-      <c r="CE2" s="1"/>
-      <c r="CF2" s="1"/>
-      <c r="CG2" s="1"/>
-      <c r="CH2" s="1"/>
-      <c r="CI2" s="1"/>
-      <c r="CJ2" s="1"/>
-      <c r="CK2" s="1"/>
-      <c r="CL2" s="1"/>
-      <c r="CM2" s="1"/>
-      <c r="CN2" s="1"/>
-      <c r="CO2" s="1"/>
-      <c r="CP2" s="1"/>
-      <c r="CQ2" s="1"/>
-      <c r="CR2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BQ2" s="2"/>
+      <c r="BR2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BT2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BV2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BY2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CA2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CC2" s="2"/>
+      <c r="CD2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CF2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CH2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="2"/>
+      <c r="CL2" s="2"/>
+      <c r="CM2" s="2"/>
+      <c r="CN2" s="2"/>
+      <c r="CO2" s="2"/>
+      <c r="CP2" s="2"/>
+      <c r="CQ2" s="2"/>
+      <c r="CR2" s="2"/>
     </row>
     <row r="4" spans="2:96">
       <c r="B4" s="3" t="s">
@@ -1853,31 +1857,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:CQ6"/>
+    <mergeCell ref="B2:CR2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:CQ4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:CQ5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:CQ7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:CQ8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:CQ9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:CQ10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:CQ11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:CQ12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:CQ13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:CQ14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:CQ15"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:CQ10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:CQ11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:CQ12"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:CQ7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:CQ8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:CQ9"/>
-    <mergeCell ref="B2:CR2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:CQ4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:CQ5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:CQ6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1890,10 +1894,15 @@
   <dimension ref="B3:CR17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="61" width="1.58203125" style="5"/>
+    <col min="62" max="62" width="1.58203125" style="5" customWidth="1"/>
+    <col min="63" max="16384" width="1.58203125" style="5"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:96">
       <c r="B3" s="4" t="s">
@@ -2201,1171 +2210,1255 @@
       <c r="CR5" s="4"/>
     </row>
     <row r="6" spans="2:96">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="5"/>
-      <c r="AZ6" s="5"/>
-      <c r="BA6" s="5"/>
-      <c r="BB6" s="5"/>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="5"/>
-      <c r="BE6" s="5"/>
-      <c r="BF6" s="5"/>
-      <c r="BG6" s="5"/>
-      <c r="BH6" s="5"/>
-      <c r="BI6" s="5"/>
-      <c r="BJ6" s="5"/>
-      <c r="BK6" s="5"/>
-      <c r="BL6" s="5"/>
-      <c r="BM6" s="5"/>
-      <c r="BN6" s="5"/>
-      <c r="BO6" s="5"/>
-      <c r="BP6" s="5"/>
-      <c r="BQ6" s="5"/>
-      <c r="BR6" s="5"/>
-      <c r="BS6" s="5"/>
-      <c r="BT6" s="5"/>
-      <c r="BU6" s="5"/>
-      <c r="BV6" s="5"/>
-      <c r="BW6" s="5"/>
-      <c r="BX6" s="5"/>
-      <c r="BY6" s="5"/>
-      <c r="BZ6" s="5"/>
-      <c r="CA6" s="5"/>
-      <c r="CB6" s="5"/>
-      <c r="CC6" s="5"/>
-      <c r="CD6" s="5"/>
-      <c r="CE6" s="5"/>
-      <c r="CF6" s="5"/>
-      <c r="CG6" s="5"/>
-      <c r="CH6" s="5"/>
-      <c r="CI6" s="5"/>
-      <c r="CJ6" s="5"/>
-      <c r="CK6" s="5"/>
-      <c r="CL6" s="5"/>
-      <c r="CM6" s="5"/>
-      <c r="CN6" s="5"/>
-      <c r="CO6" s="5"/>
-      <c r="CP6" s="5"/>
-      <c r="CQ6" s="5"/>
-      <c r="CR6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="4"/>
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="4"/>
+      <c r="BK6" s="4"/>
+      <c r="BL6" s="4"/>
+      <c r="BM6" s="4"/>
+      <c r="BN6" s="4"/>
+      <c r="BO6" s="4"/>
+      <c r="BP6" s="4"/>
+      <c r="BQ6" s="4"/>
+      <c r="BR6" s="4"/>
+      <c r="BS6" s="4"/>
+      <c r="BT6" s="4"/>
+      <c r="BU6" s="4"/>
+      <c r="BV6" s="4"/>
+      <c r="BW6" s="4"/>
+      <c r="BX6" s="4"/>
+      <c r="BY6" s="4"/>
+      <c r="BZ6" s="4"/>
+      <c r="CA6" s="4"/>
+      <c r="CB6" s="4"/>
+      <c r="CC6" s="4"/>
+      <c r="CD6" s="4"/>
+      <c r="CE6" s="4"/>
+      <c r="CF6" s="4"/>
+      <c r="CG6" s="4"/>
+      <c r="CH6" s="4"/>
+      <c r="CI6" s="4"/>
+      <c r="CJ6" s="4"/>
+      <c r="CK6" s="4"/>
+      <c r="CL6" s="4"/>
+      <c r="CM6" s="4"/>
+      <c r="CN6" s="4"/>
+      <c r="CO6" s="4"/>
+      <c r="CP6" s="4"/>
+      <c r="CQ6" s="4"/>
+      <c r="CR6" s="4"/>
     </row>
     <row r="7" spans="2:96">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="5"/>
-      <c r="AZ7" s="5"/>
-      <c r="BA7" s="5"/>
-      <c r="BB7" s="5"/>
-      <c r="BC7" s="5"/>
-      <c r="BD7" s="5"/>
-      <c r="BE7" s="5"/>
-      <c r="BF7" s="5"/>
-      <c r="BG7" s="5"/>
-      <c r="BH7" s="5"/>
-      <c r="BI7" s="5"/>
-      <c r="BJ7" s="5"/>
-      <c r="BK7" s="5"/>
-      <c r="BL7" s="5"/>
-      <c r="BM7" s="5"/>
-      <c r="BN7" s="5"/>
-      <c r="BO7" s="5"/>
-      <c r="BP7" s="5"/>
-      <c r="BQ7" s="5"/>
-      <c r="BR7" s="5"/>
-      <c r="BS7" s="5"/>
-      <c r="BT7" s="5"/>
-      <c r="BU7" s="5"/>
-      <c r="BV7" s="5"/>
-      <c r="BW7" s="5"/>
-      <c r="BX7" s="5"/>
-      <c r="BY7" s="5"/>
-      <c r="BZ7" s="5"/>
-      <c r="CA7" s="5"/>
-      <c r="CB7" s="5"/>
-      <c r="CC7" s="5"/>
-      <c r="CD7" s="5"/>
-      <c r="CE7" s="5"/>
-      <c r="CF7" s="5"/>
-      <c r="CG7" s="5"/>
-      <c r="CH7" s="5"/>
-      <c r="CI7" s="5"/>
-      <c r="CJ7" s="5"/>
-      <c r="CK7" s="5"/>
-      <c r="CL7" s="5"/>
-      <c r="CM7" s="5"/>
-      <c r="CN7" s="5"/>
-      <c r="CO7" s="5"/>
-      <c r="CP7" s="5"/>
-      <c r="CQ7" s="5"/>
-      <c r="CR7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+      <c r="BL7" s="4"/>
+      <c r="BM7" s="4"/>
+      <c r="BN7" s="4"/>
+      <c r="BO7" s="4"/>
+      <c r="BP7" s="4"/>
+      <c r="BQ7" s="4"/>
+      <c r="BR7" s="4"/>
+      <c r="BS7" s="4"/>
+      <c r="BT7" s="4"/>
+      <c r="BU7" s="4"/>
+      <c r="BV7" s="4"/>
+      <c r="BW7" s="4"/>
+      <c r="BX7" s="4"/>
+      <c r="BY7" s="4"/>
+      <c r="BZ7" s="4"/>
+      <c r="CA7" s="4"/>
+      <c r="CB7" s="4"/>
+      <c r="CC7" s="4"/>
+      <c r="CD7" s="4"/>
+      <c r="CE7" s="4"/>
+      <c r="CF7" s="4"/>
+      <c r="CG7" s="4"/>
+      <c r="CH7" s="4"/>
+      <c r="CI7" s="4"/>
+      <c r="CJ7" s="4"/>
+      <c r="CK7" s="4"/>
+      <c r="CL7" s="4"/>
+      <c r="CM7" s="4"/>
+      <c r="CN7" s="4"/>
+      <c r="CO7" s="4"/>
+      <c r="CP7" s="4"/>
+      <c r="CQ7" s="4"/>
+      <c r="CR7" s="4"/>
     </row>
     <row r="8" spans="2:96">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5"/>
-      <c r="AW8" s="5"/>
-      <c r="AX8" s="5"/>
-      <c r="AY8" s="5"/>
-      <c r="AZ8" s="5"/>
-      <c r="BA8" s="5"/>
-      <c r="BB8" s="5"/>
-      <c r="BC8" s="5"/>
-      <c r="BD8" s="5"/>
-      <c r="BE8" s="5"/>
-      <c r="BF8" s="5"/>
-      <c r="BG8" s="5"/>
-      <c r="BH8" s="5"/>
-      <c r="BI8" s="5"/>
-      <c r="BJ8" s="5"/>
-      <c r="BK8" s="5"/>
-      <c r="BL8" s="5"/>
-      <c r="BM8" s="5"/>
-      <c r="BN8" s="5"/>
-      <c r="BO8" s="5"/>
-      <c r="BP8" s="5"/>
-      <c r="BQ8" s="5"/>
-      <c r="BR8" s="5"/>
-      <c r="BS8" s="5"/>
-      <c r="BT8" s="5"/>
-      <c r="BU8" s="5"/>
-      <c r="BV8" s="5"/>
-      <c r="BW8" s="5"/>
-      <c r="BX8" s="5"/>
-      <c r="BY8" s="5"/>
-      <c r="BZ8" s="5"/>
-      <c r="CA8" s="5"/>
-      <c r="CB8" s="5"/>
-      <c r="CC8" s="5"/>
-      <c r="CD8" s="5"/>
-      <c r="CE8" s="5"/>
-      <c r="CF8" s="5"/>
-      <c r="CG8" s="5"/>
-      <c r="CH8" s="5"/>
-      <c r="CI8" s="5"/>
-      <c r="CJ8" s="5"/>
-      <c r="CK8" s="5"/>
-      <c r="CL8" s="5"/>
-      <c r="CM8" s="5"/>
-      <c r="CN8" s="5"/>
-      <c r="CO8" s="5"/>
-      <c r="CP8" s="5"/>
-      <c r="CQ8" s="5"/>
-      <c r="CR8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
+      <c r="BL8" s="4"/>
+      <c r="BM8" s="4"/>
+      <c r="BN8" s="4"/>
+      <c r="BO8" s="4"/>
+      <c r="BP8" s="4"/>
+      <c r="BQ8" s="4"/>
+      <c r="BR8" s="4"/>
+      <c r="BS8" s="4"/>
+      <c r="BT8" s="4"/>
+      <c r="BU8" s="4"/>
+      <c r="BV8" s="4"/>
+      <c r="BW8" s="4"/>
+      <c r="BX8" s="4"/>
+      <c r="BY8" s="4"/>
+      <c r="BZ8" s="4"/>
+      <c r="CA8" s="4"/>
+      <c r="CB8" s="4"/>
+      <c r="CC8" s="4"/>
+      <c r="CD8" s="4"/>
+      <c r="CE8" s="4"/>
+      <c r="CF8" s="4"/>
+      <c r="CG8" s="4"/>
+      <c r="CH8" s="4"/>
+      <c r="CI8" s="4"/>
+      <c r="CJ8" s="4"/>
+      <c r="CK8" s="4"/>
+      <c r="CL8" s="4"/>
+      <c r="CM8" s="4"/>
+      <c r="CN8" s="4"/>
+      <c r="CO8" s="4"/>
+      <c r="CP8" s="4"/>
+      <c r="CQ8" s="4"/>
+      <c r="CR8" s="4"/>
     </row>
     <row r="9" spans="2:96">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5"/>
-      <c r="AS9" s="5"/>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
-      <c r="AV9" s="5"/>
-      <c r="AW9" s="5"/>
-      <c r="AX9" s="5"/>
-      <c r="AY9" s="5"/>
-      <c r="AZ9" s="5"/>
-      <c r="BA9" s="5"/>
-      <c r="BB9" s="5"/>
-      <c r="BC9" s="5"/>
-      <c r="BD9" s="5"/>
-      <c r="BE9" s="5"/>
-      <c r="BF9" s="5"/>
-      <c r="BG9" s="5"/>
-      <c r="BH9" s="5"/>
-      <c r="BI9" s="5"/>
-      <c r="BJ9" s="5"/>
-      <c r="BK9" s="5"/>
-      <c r="BL9" s="5"/>
-      <c r="BM9" s="5"/>
-      <c r="BN9" s="5"/>
-      <c r="BO9" s="5"/>
-      <c r="BP9" s="5"/>
-      <c r="BQ9" s="5"/>
-      <c r="BR9" s="5"/>
-      <c r="BS9" s="5"/>
-      <c r="BT9" s="5"/>
-      <c r="BU9" s="5"/>
-      <c r="BV9" s="5"/>
-      <c r="BW9" s="5"/>
-      <c r="BX9" s="5"/>
-      <c r="BY9" s="5"/>
-      <c r="BZ9" s="5"/>
-      <c r="CA9" s="5"/>
-      <c r="CB9" s="5"/>
-      <c r="CC9" s="5"/>
-      <c r="CD9" s="5"/>
-      <c r="CE9" s="5"/>
-      <c r="CF9" s="5"/>
-      <c r="CG9" s="5"/>
-      <c r="CH9" s="5"/>
-      <c r="CI9" s="5"/>
-      <c r="CJ9" s="5"/>
-      <c r="CK9" s="5"/>
-      <c r="CL9" s="5"/>
-      <c r="CM9" s="5"/>
-      <c r="CN9" s="5"/>
-      <c r="CO9" s="5"/>
-      <c r="CP9" s="5"/>
-      <c r="CQ9" s="5"/>
-      <c r="CR9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
+      <c r="BF9" s="4"/>
+      <c r="BG9" s="4"/>
+      <c r="BH9" s="4"/>
+      <c r="BI9" s="4"/>
+      <c r="BJ9" s="4"/>
+      <c r="BK9" s="4"/>
+      <c r="BL9" s="4"/>
+      <c r="BM9" s="4"/>
+      <c r="BN9" s="4"/>
+      <c r="BO9" s="4"/>
+      <c r="BP9" s="4"/>
+      <c r="BQ9" s="4"/>
+      <c r="BR9" s="4"/>
+      <c r="BS9" s="4"/>
+      <c r="BT9" s="4"/>
+      <c r="BU9" s="4"/>
+      <c r="BV9" s="4"/>
+      <c r="BW9" s="4"/>
+      <c r="BX9" s="4"/>
+      <c r="BY9" s="4"/>
+      <c r="BZ9" s="4"/>
+      <c r="CA9" s="4"/>
+      <c r="CB9" s="4"/>
+      <c r="CC9" s="4"/>
+      <c r="CD9" s="4"/>
+      <c r="CE9" s="4"/>
+      <c r="CF9" s="4"/>
+      <c r="CG9" s="4"/>
+      <c r="CH9" s="4"/>
+      <c r="CI9" s="4"/>
+      <c r="CJ9" s="4"/>
+      <c r="CK9" s="4"/>
+      <c r="CL9" s="4"/>
+      <c r="CM9" s="4"/>
+      <c r="CN9" s="4"/>
+      <c r="CO9" s="4"/>
+      <c r="CP9" s="4"/>
+      <c r="CQ9" s="4"/>
+      <c r="CR9" s="4"/>
     </row>
     <row r="10" spans="2:96">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="5"/>
-      <c r="AU10" s="5"/>
-      <c r="AV10" s="5"/>
-      <c r="AW10" s="5"/>
-      <c r="AX10" s="5"/>
-      <c r="AY10" s="5"/>
-      <c r="AZ10" s="5"/>
-      <c r="BA10" s="5"/>
-      <c r="BB10" s="5"/>
-      <c r="BC10" s="5"/>
-      <c r="BD10" s="5"/>
-      <c r="BE10" s="5"/>
-      <c r="BF10" s="5"/>
-      <c r="BG10" s="5"/>
-      <c r="BH10" s="5"/>
-      <c r="BI10" s="5"/>
-      <c r="BJ10" s="5"/>
-      <c r="BK10" s="5"/>
-      <c r="BL10" s="5"/>
-      <c r="BM10" s="5"/>
-      <c r="BN10" s="5"/>
-      <c r="BO10" s="5"/>
-      <c r="BP10" s="5"/>
-      <c r="BQ10" s="5"/>
-      <c r="BR10" s="5"/>
-      <c r="BS10" s="5"/>
-      <c r="BT10" s="5"/>
-      <c r="BU10" s="5"/>
-      <c r="BV10" s="5"/>
-      <c r="BW10" s="5"/>
-      <c r="BX10" s="5"/>
-      <c r="BY10" s="5"/>
-      <c r="BZ10" s="5"/>
-      <c r="CA10" s="5"/>
-      <c r="CB10" s="5"/>
-      <c r="CC10" s="5"/>
-      <c r="CD10" s="5"/>
-      <c r="CE10" s="5"/>
-      <c r="CF10" s="5"/>
-      <c r="CG10" s="5"/>
-      <c r="CH10" s="5"/>
-      <c r="CI10" s="5"/>
-      <c r="CJ10" s="5"/>
-      <c r="CK10" s="5"/>
-      <c r="CL10" s="5"/>
-      <c r="CM10" s="5"/>
-      <c r="CN10" s="5"/>
-      <c r="CO10" s="5"/>
-      <c r="CP10" s="5"/>
-      <c r="CQ10" s="5"/>
-      <c r="CR10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
+      <c r="BF10" s="4"/>
+      <c r="BG10" s="4"/>
+      <c r="BH10" s="4"/>
+      <c r="BI10" s="4"/>
+      <c r="BJ10" s="4"/>
+      <c r="BK10" s="4"/>
+      <c r="BL10" s="4"/>
+      <c r="BM10" s="4"/>
+      <c r="BN10" s="4"/>
+      <c r="BO10" s="4"/>
+      <c r="BP10" s="4"/>
+      <c r="BQ10" s="4"/>
+      <c r="BR10" s="4"/>
+      <c r="BS10" s="4"/>
+      <c r="BT10" s="4"/>
+      <c r="BU10" s="4"/>
+      <c r="BV10" s="4"/>
+      <c r="BW10" s="4"/>
+      <c r="BX10" s="4"/>
+      <c r="BY10" s="4"/>
+      <c r="BZ10" s="4"/>
+      <c r="CA10" s="4"/>
+      <c r="CB10" s="4"/>
+      <c r="CC10" s="4"/>
+      <c r="CD10" s="4"/>
+      <c r="CE10" s="4"/>
+      <c r="CF10" s="4"/>
+      <c r="CG10" s="4"/>
+      <c r="CH10" s="4"/>
+      <c r="CI10" s="4"/>
+      <c r="CJ10" s="4"/>
+      <c r="CK10" s="4"/>
+      <c r="CL10" s="4"/>
+      <c r="CM10" s="4"/>
+      <c r="CN10" s="4"/>
+      <c r="CO10" s="4"/>
+      <c r="CP10" s="4"/>
+      <c r="CQ10" s="4"/>
+      <c r="CR10" s="4"/>
     </row>
     <row r="11" spans="2:96">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="5"/>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="5"/>
-      <c r="AW11" s="5"/>
-      <c r="AX11" s="5"/>
-      <c r="AY11" s="5"/>
-      <c r="AZ11" s="5"/>
-      <c r="BA11" s="5"/>
-      <c r="BB11" s="5"/>
-      <c r="BC11" s="5"/>
-      <c r="BD11" s="5"/>
-      <c r="BE11" s="5"/>
-      <c r="BF11" s="5"/>
-      <c r="BG11" s="5"/>
-      <c r="BH11" s="5"/>
-      <c r="BI11" s="5"/>
-      <c r="BJ11" s="5"/>
-      <c r="BK11" s="5"/>
-      <c r="BL11" s="5"/>
-      <c r="BM11" s="5"/>
-      <c r="BN11" s="5"/>
-      <c r="BO11" s="5"/>
-      <c r="BP11" s="5"/>
-      <c r="BQ11" s="5"/>
-      <c r="BR11" s="5"/>
-      <c r="BS11" s="5"/>
-      <c r="BT11" s="5"/>
-      <c r="BU11" s="5"/>
-      <c r="BV11" s="5"/>
-      <c r="BW11" s="5"/>
-      <c r="BX11" s="5"/>
-      <c r="BY11" s="5"/>
-      <c r="BZ11" s="5"/>
-      <c r="CA11" s="5"/>
-      <c r="CB11" s="5"/>
-      <c r="CC11" s="5"/>
-      <c r="CD11" s="5"/>
-      <c r="CE11" s="5"/>
-      <c r="CF11" s="5"/>
-      <c r="CG11" s="5"/>
-      <c r="CH11" s="5"/>
-      <c r="CI11" s="5"/>
-      <c r="CJ11" s="5"/>
-      <c r="CK11" s="5"/>
-      <c r="CL11" s="5"/>
-      <c r="CM11" s="5"/>
-      <c r="CN11" s="5"/>
-      <c r="CO11" s="5"/>
-      <c r="CP11" s="5"/>
-      <c r="CQ11" s="5"/>
-      <c r="CR11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
+      <c r="BF11" s="4"/>
+      <c r="BG11" s="4"/>
+      <c r="BH11" s="4"/>
+      <c r="BI11" s="4"/>
+      <c r="BJ11" s="4"/>
+      <c r="BK11" s="4"/>
+      <c r="BL11" s="4"/>
+      <c r="BM11" s="4"/>
+      <c r="BN11" s="4"/>
+      <c r="BO11" s="4"/>
+      <c r="BP11" s="4"/>
+      <c r="BQ11" s="4"/>
+      <c r="BR11" s="4"/>
+      <c r="BS11" s="4"/>
+      <c r="BT11" s="4"/>
+      <c r="BU11" s="4"/>
+      <c r="BV11" s="4"/>
+      <c r="BW11" s="4"/>
+      <c r="BX11" s="4"/>
+      <c r="BY11" s="4"/>
+      <c r="BZ11" s="4"/>
+      <c r="CA11" s="4"/>
+      <c r="CB11" s="4"/>
+      <c r="CC11" s="4"/>
+      <c r="CD11" s="4"/>
+      <c r="CE11" s="4"/>
+      <c r="CF11" s="4"/>
+      <c r="CG11" s="4"/>
+      <c r="CH11" s="4"/>
+      <c r="CI11" s="4"/>
+      <c r="CJ11" s="4"/>
+      <c r="CK11" s="4"/>
+      <c r="CL11" s="4"/>
+      <c r="CM11" s="4"/>
+      <c r="CN11" s="4"/>
+      <c r="CO11" s="4"/>
+      <c r="CP11" s="4"/>
+      <c r="CQ11" s="4"/>
+      <c r="CR11" s="4"/>
     </row>
     <row r="12" spans="2:96">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="5"/>
-      <c r="AT12" s="5"/>
-      <c r="AU12" s="5"/>
-      <c r="AV12" s="5"/>
-      <c r="AW12" s="5"/>
-      <c r="AX12" s="5"/>
-      <c r="AY12" s="5"/>
-      <c r="AZ12" s="5"/>
-      <c r="BA12" s="5"/>
-      <c r="BB12" s="5"/>
-      <c r="BC12" s="5"/>
-      <c r="BD12" s="5"/>
-      <c r="BE12" s="5"/>
-      <c r="BF12" s="5"/>
-      <c r="BG12" s="5"/>
-      <c r="BH12" s="5"/>
-      <c r="BI12" s="5"/>
-      <c r="BJ12" s="5"/>
-      <c r="BK12" s="5"/>
-      <c r="BL12" s="5"/>
-      <c r="BM12" s="5"/>
-      <c r="BN12" s="5"/>
-      <c r="BO12" s="5"/>
-      <c r="BP12" s="5"/>
-      <c r="BQ12" s="5"/>
-      <c r="BR12" s="5"/>
-      <c r="BS12" s="5"/>
-      <c r="BT12" s="5"/>
-      <c r="BU12" s="5"/>
-      <c r="BV12" s="5"/>
-      <c r="BW12" s="5"/>
-      <c r="BX12" s="5"/>
-      <c r="BY12" s="5"/>
-      <c r="BZ12" s="5"/>
-      <c r="CA12" s="5"/>
-      <c r="CB12" s="5"/>
-      <c r="CC12" s="5"/>
-      <c r="CD12" s="5"/>
-      <c r="CE12" s="5"/>
-      <c r="CF12" s="5"/>
-      <c r="CG12" s="5"/>
-      <c r="CH12" s="5"/>
-      <c r="CI12" s="5"/>
-      <c r="CJ12" s="5"/>
-      <c r="CK12" s="5"/>
-      <c r="CL12" s="5"/>
-      <c r="CM12" s="5"/>
-      <c r="CN12" s="5"/>
-      <c r="CO12" s="5"/>
-      <c r="CP12" s="5"/>
-      <c r="CQ12" s="5"/>
-      <c r="CR12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
+      <c r="BF12" s="4"/>
+      <c r="BG12" s="4"/>
+      <c r="BH12" s="4"/>
+      <c r="BI12" s="4"/>
+      <c r="BJ12" s="4"/>
+      <c r="BK12" s="4"/>
+      <c r="BL12" s="4"/>
+      <c r="BM12" s="4"/>
+      <c r="BN12" s="4"/>
+      <c r="BO12" s="4"/>
+      <c r="BP12" s="4"/>
+      <c r="BQ12" s="4"/>
+      <c r="BR12" s="4"/>
+      <c r="BS12" s="4"/>
+      <c r="BT12" s="4"/>
+      <c r="BU12" s="4"/>
+      <c r="BV12" s="4"/>
+      <c r="BW12" s="4"/>
+      <c r="BX12" s="4"/>
+      <c r="BY12" s="4"/>
+      <c r="BZ12" s="4"/>
+      <c r="CA12" s="4"/>
+      <c r="CB12" s="4"/>
+      <c r="CC12" s="4"/>
+      <c r="CD12" s="4"/>
+      <c r="CE12" s="4"/>
+      <c r="CF12" s="4"/>
+      <c r="CG12" s="4"/>
+      <c r="CH12" s="4"/>
+      <c r="CI12" s="4"/>
+      <c r="CJ12" s="4"/>
+      <c r="CK12" s="4"/>
+      <c r="CL12" s="4"/>
+      <c r="CM12" s="4"/>
+      <c r="CN12" s="4"/>
+      <c r="CO12" s="4"/>
+      <c r="CP12" s="4"/>
+      <c r="CQ12" s="4"/>
+      <c r="CR12" s="4"/>
     </row>
     <row r="13" spans="2:96">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="5"/>
-      <c r="AT13" s="5"/>
-      <c r="AU13" s="5"/>
-      <c r="AV13" s="5"/>
-      <c r="AW13" s="5"/>
-      <c r="AX13" s="5"/>
-      <c r="AY13" s="5"/>
-      <c r="AZ13" s="5"/>
-      <c r="BA13" s="5"/>
-      <c r="BB13" s="5"/>
-      <c r="BC13" s="5"/>
-      <c r="BD13" s="5"/>
-      <c r="BE13" s="5"/>
-      <c r="BF13" s="5"/>
-      <c r="BG13" s="5"/>
-      <c r="BH13" s="5"/>
-      <c r="BI13" s="5"/>
-      <c r="BJ13" s="5"/>
-      <c r="BK13" s="5"/>
-      <c r="BL13" s="5"/>
-      <c r="BM13" s="5"/>
-      <c r="BN13" s="5"/>
-      <c r="BO13" s="5"/>
-      <c r="BP13" s="5"/>
-      <c r="BQ13" s="5"/>
-      <c r="BR13" s="5"/>
-      <c r="BS13" s="5"/>
-      <c r="BT13" s="5"/>
-      <c r="BU13" s="5"/>
-      <c r="BV13" s="5"/>
-      <c r="BW13" s="5"/>
-      <c r="BX13" s="5"/>
-      <c r="BY13" s="5"/>
-      <c r="BZ13" s="5"/>
-      <c r="CA13" s="5"/>
-      <c r="CB13" s="5"/>
-      <c r="CC13" s="5"/>
-      <c r="CD13" s="5"/>
-      <c r="CE13" s="5"/>
-      <c r="CF13" s="5"/>
-      <c r="CG13" s="5"/>
-      <c r="CH13" s="5"/>
-      <c r="CI13" s="5"/>
-      <c r="CJ13" s="5"/>
-      <c r="CK13" s="5"/>
-      <c r="CL13" s="5"/>
-      <c r="CM13" s="5"/>
-      <c r="CN13" s="5"/>
-      <c r="CO13" s="5"/>
-      <c r="CP13" s="5"/>
-      <c r="CQ13" s="5"/>
-      <c r="CR13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="4"/>
+      <c r="BK13" s="4"/>
+      <c r="BL13" s="4"/>
+      <c r="BM13" s="4"/>
+      <c r="BN13" s="4"/>
+      <c r="BO13" s="4"/>
+      <c r="BP13" s="4"/>
+      <c r="BQ13" s="4"/>
+      <c r="BR13" s="4"/>
+      <c r="BS13" s="4"/>
+      <c r="BT13" s="4"/>
+      <c r="BU13" s="4"/>
+      <c r="BV13" s="4"/>
+      <c r="BW13" s="4"/>
+      <c r="BX13" s="4"/>
+      <c r="BY13" s="4"/>
+      <c r="BZ13" s="4"/>
+      <c r="CA13" s="4"/>
+      <c r="CB13" s="4"/>
+      <c r="CC13" s="4"/>
+      <c r="CD13" s="4"/>
+      <c r="CE13" s="4"/>
+      <c r="CF13" s="4"/>
+      <c r="CG13" s="4"/>
+      <c r="CH13" s="4"/>
+      <c r="CI13" s="4"/>
+      <c r="CJ13" s="4"/>
+      <c r="CK13" s="4"/>
+      <c r="CL13" s="4"/>
+      <c r="CM13" s="4"/>
+      <c r="CN13" s="4"/>
+      <c r="CO13" s="4"/>
+      <c r="CP13" s="4"/>
+      <c r="CQ13" s="4"/>
+      <c r="CR13" s="4"/>
     </row>
     <row r="14" spans="2:96">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="5"/>
-      <c r="AT14" s="5"/>
-      <c r="AU14" s="5"/>
-      <c r="AV14" s="5"/>
-      <c r="AW14" s="5"/>
-      <c r="AX14" s="5"/>
-      <c r="AY14" s="5"/>
-      <c r="AZ14" s="5"/>
-      <c r="BA14" s="5"/>
-      <c r="BB14" s="5"/>
-      <c r="BC14" s="5"/>
-      <c r="BD14" s="5"/>
-      <c r="BE14" s="5"/>
-      <c r="BF14" s="5"/>
-      <c r="BG14" s="5"/>
-      <c r="BH14" s="5"/>
-      <c r="BI14" s="5"/>
-      <c r="BJ14" s="5"/>
-      <c r="BK14" s="5"/>
-      <c r="BL14" s="5"/>
-      <c r="BM14" s="5"/>
-      <c r="BN14" s="5"/>
-      <c r="BO14" s="5"/>
-      <c r="BP14" s="5"/>
-      <c r="BQ14" s="5"/>
-      <c r="BR14" s="5"/>
-      <c r="BS14" s="5"/>
-      <c r="BT14" s="5"/>
-      <c r="BU14" s="5"/>
-      <c r="BV14" s="5"/>
-      <c r="BW14" s="5"/>
-      <c r="BX14" s="5"/>
-      <c r="BY14" s="5"/>
-      <c r="BZ14" s="5"/>
-      <c r="CA14" s="5"/>
-      <c r="CB14" s="5"/>
-      <c r="CC14" s="5"/>
-      <c r="CD14" s="5"/>
-      <c r="CE14" s="5"/>
-      <c r="CF14" s="5"/>
-      <c r="CG14" s="5"/>
-      <c r="CH14" s="5"/>
-      <c r="CI14" s="5"/>
-      <c r="CJ14" s="5"/>
-      <c r="CK14" s="5"/>
-      <c r="CL14" s="5"/>
-      <c r="CM14" s="5"/>
-      <c r="CN14" s="5"/>
-      <c r="CO14" s="5"/>
-      <c r="CP14" s="5"/>
-      <c r="CQ14" s="5"/>
-      <c r="CR14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
+      <c r="BL14" s="4"/>
+      <c r="BM14" s="4"/>
+      <c r="BN14" s="4"/>
+      <c r="BO14" s="4"/>
+      <c r="BP14" s="4"/>
+      <c r="BQ14" s="4"/>
+      <c r="BR14" s="4"/>
+      <c r="BS14" s="4"/>
+      <c r="BT14" s="4"/>
+      <c r="BU14" s="4"/>
+      <c r="BV14" s="4"/>
+      <c r="BW14" s="4"/>
+      <c r="BX14" s="4"/>
+      <c r="BY14" s="4"/>
+      <c r="BZ14" s="4"/>
+      <c r="CA14" s="4"/>
+      <c r="CB14" s="4"/>
+      <c r="CC14" s="4"/>
+      <c r="CD14" s="4"/>
+      <c r="CE14" s="4"/>
+      <c r="CF14" s="4"/>
+      <c r="CG14" s="4"/>
+      <c r="CH14" s="4"/>
+      <c r="CI14" s="4"/>
+      <c r="CJ14" s="4"/>
+      <c r="CK14" s="4"/>
+      <c r="CL14" s="4"/>
+      <c r="CM14" s="4"/>
+      <c r="CN14" s="4"/>
+      <c r="CO14" s="4"/>
+      <c r="CP14" s="4"/>
+      <c r="CQ14" s="4"/>
+      <c r="CR14" s="4"/>
     </row>
     <row r="15" spans="2:96">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-      <c r="AS15" s="5"/>
-      <c r="AT15" s="5"/>
-      <c r="AU15" s="5"/>
-      <c r="AV15" s="5"/>
-      <c r="AW15" s="5"/>
-      <c r="AX15" s="5"/>
-      <c r="AY15" s="5"/>
-      <c r="AZ15" s="5"/>
-      <c r="BA15" s="5"/>
-      <c r="BB15" s="5"/>
-      <c r="BC15" s="5"/>
-      <c r="BD15" s="5"/>
-      <c r="BE15" s="5"/>
-      <c r="BF15" s="5"/>
-      <c r="BG15" s="5"/>
-      <c r="BH15" s="5"/>
-      <c r="BI15" s="5"/>
-      <c r="BJ15" s="5"/>
-      <c r="BK15" s="5"/>
-      <c r="BL15" s="5"/>
-      <c r="BM15" s="5"/>
-      <c r="BN15" s="5"/>
-      <c r="BO15" s="5"/>
-      <c r="BP15" s="5"/>
-      <c r="BQ15" s="5"/>
-      <c r="BR15" s="5"/>
-      <c r="BS15" s="5"/>
-      <c r="BT15" s="5"/>
-      <c r="BU15" s="5"/>
-      <c r="BV15" s="5"/>
-      <c r="BW15" s="5"/>
-      <c r="BX15" s="5"/>
-      <c r="BY15" s="5"/>
-      <c r="BZ15" s="5"/>
-      <c r="CA15" s="5"/>
-      <c r="CB15" s="5"/>
-      <c r="CC15" s="5"/>
-      <c r="CD15" s="5"/>
-      <c r="CE15" s="5"/>
-      <c r="CF15" s="5"/>
-      <c r="CG15" s="5"/>
-      <c r="CH15" s="5"/>
-      <c r="CI15" s="5"/>
-      <c r="CJ15" s="5"/>
-      <c r="CK15" s="5"/>
-      <c r="CL15" s="5"/>
-      <c r="CM15" s="5"/>
-      <c r="CN15" s="5"/>
-      <c r="CO15" s="5"/>
-      <c r="CP15" s="5"/>
-      <c r="CQ15" s="5"/>
-      <c r="CR15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="4"/>
+      <c r="BK15" s="4"/>
+      <c r="BL15" s="4"/>
+      <c r="BM15" s="4"/>
+      <c r="BN15" s="4"/>
+      <c r="BO15" s="4"/>
+      <c r="BP15" s="4"/>
+      <c r="BQ15" s="4"/>
+      <c r="BR15" s="4"/>
+      <c r="BS15" s="4"/>
+      <c r="BT15" s="4"/>
+      <c r="BU15" s="4"/>
+      <c r="BV15" s="4"/>
+      <c r="BW15" s="4"/>
+      <c r="BX15" s="4"/>
+      <c r="BY15" s="4"/>
+      <c r="BZ15" s="4"/>
+      <c r="CA15" s="4"/>
+      <c r="CB15" s="4"/>
+      <c r="CC15" s="4"/>
+      <c r="CD15" s="4"/>
+      <c r="CE15" s="4"/>
+      <c r="CF15" s="4"/>
+      <c r="CG15" s="4"/>
+      <c r="CH15" s="4"/>
+      <c r="CI15" s="4"/>
+      <c r="CJ15" s="4"/>
+      <c r="CK15" s="4"/>
+      <c r="CL15" s="4"/>
+      <c r="CM15" s="4"/>
+      <c r="CN15" s="4"/>
+      <c r="CO15" s="4"/>
+      <c r="CP15" s="4"/>
+      <c r="CQ15" s="4"/>
+      <c r="CR15" s="4"/>
     </row>
     <row r="16" spans="2:96">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="5"/>
-      <c r="AR16" s="5"/>
-      <c r="AS16" s="5"/>
-      <c r="AT16" s="5"/>
-      <c r="AU16" s="5"/>
-      <c r="AV16" s="5"/>
-      <c r="AW16" s="5"/>
-      <c r="AX16" s="5"/>
-      <c r="AY16" s="5"/>
-      <c r="AZ16" s="5"/>
-      <c r="BA16" s="5"/>
-      <c r="BB16" s="5"/>
-      <c r="BC16" s="5"/>
-      <c r="BD16" s="5"/>
-      <c r="BE16" s="5"/>
-      <c r="BF16" s="5"/>
-      <c r="BG16" s="5"/>
-      <c r="BH16" s="5"/>
-      <c r="BI16" s="5"/>
-      <c r="BJ16" s="5"/>
-      <c r="BK16" s="5"/>
-      <c r="BL16" s="5"/>
-      <c r="BM16" s="5"/>
-      <c r="BN16" s="5"/>
-      <c r="BO16" s="5"/>
-      <c r="BP16" s="5"/>
-      <c r="BQ16" s="5"/>
-      <c r="BR16" s="5"/>
-      <c r="BS16" s="5"/>
-      <c r="BT16" s="5"/>
-      <c r="BU16" s="5"/>
-      <c r="BV16" s="5"/>
-      <c r="BW16" s="5"/>
-      <c r="BX16" s="5"/>
-      <c r="BY16" s="5"/>
-      <c r="BZ16" s="5"/>
-      <c r="CA16" s="5"/>
-      <c r="CB16" s="5"/>
-      <c r="CC16" s="5"/>
-      <c r="CD16" s="5"/>
-      <c r="CE16" s="5"/>
-      <c r="CF16" s="5"/>
-      <c r="CG16" s="5"/>
-      <c r="CH16" s="5"/>
-      <c r="CI16" s="5"/>
-      <c r="CJ16" s="5"/>
-      <c r="CK16" s="5"/>
-      <c r="CL16" s="5"/>
-      <c r="CM16" s="5"/>
-      <c r="CN16" s="5"/>
-      <c r="CO16" s="5"/>
-      <c r="CP16" s="5"/>
-      <c r="CQ16" s="5"/>
-      <c r="CR16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
+      <c r="BF16" s="4"/>
+      <c r="BG16" s="4"/>
+      <c r="BH16" s="4"/>
+      <c r="BI16" s="4"/>
+      <c r="BJ16" s="4"/>
+      <c r="BK16" s="4"/>
+      <c r="BL16" s="4"/>
+      <c r="BM16" s="4"/>
+      <c r="BN16" s="4"/>
+      <c r="BO16" s="4"/>
+      <c r="BP16" s="4"/>
+      <c r="BQ16" s="4"/>
+      <c r="BR16" s="4"/>
+      <c r="BS16" s="4"/>
+      <c r="BT16" s="4"/>
+      <c r="BU16" s="4"/>
+      <c r="BV16" s="4"/>
+      <c r="BW16" s="4"/>
+      <c r="BX16" s="4"/>
+      <c r="BY16" s="4"/>
+      <c r="BZ16" s="4"/>
+      <c r="CA16" s="4"/>
+      <c r="CB16" s="4"/>
+      <c r="CC16" s="4"/>
+      <c r="CD16" s="4"/>
+      <c r="CE16" s="4"/>
+      <c r="CF16" s="4"/>
+      <c r="CG16" s="4"/>
+      <c r="CH16" s="4"/>
+      <c r="CI16" s="4"/>
+      <c r="CJ16" s="4"/>
+      <c r="CK16" s="4"/>
+      <c r="CL16" s="4"/>
+      <c r="CM16" s="4"/>
+      <c r="CN16" s="4"/>
+      <c r="CO16" s="4"/>
+      <c r="CP16" s="4"/>
+      <c r="CQ16" s="4"/>
+      <c r="CR16" s="4"/>
     </row>
     <row r="17" spans="2:96">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="5"/>
-      <c r="AR17" s="5"/>
-      <c r="AS17" s="5"/>
-      <c r="AT17" s="5"/>
-      <c r="AU17" s="5"/>
-      <c r="AV17" s="5"/>
-      <c r="AW17" s="5"/>
-      <c r="AX17" s="5"/>
-      <c r="AY17" s="5"/>
-      <c r="AZ17" s="5"/>
-      <c r="BA17" s="5"/>
-      <c r="BB17" s="5"/>
-      <c r="BC17" s="5"/>
-      <c r="BD17" s="5"/>
-      <c r="BE17" s="5"/>
-      <c r="BF17" s="5"/>
-      <c r="BG17" s="5"/>
-      <c r="BH17" s="5"/>
-      <c r="BI17" s="5"/>
-      <c r="BJ17" s="5"/>
-      <c r="BK17" s="5"/>
-      <c r="BL17" s="5"/>
-      <c r="BM17" s="5"/>
-      <c r="BN17" s="5"/>
-      <c r="BO17" s="5"/>
-      <c r="BP17" s="5"/>
-      <c r="BQ17" s="5"/>
-      <c r="BR17" s="5"/>
-      <c r="BS17" s="5"/>
-      <c r="BT17" s="5"/>
-      <c r="BU17" s="5"/>
-      <c r="BV17" s="5"/>
-      <c r="BW17" s="5"/>
-      <c r="BX17" s="5"/>
-      <c r="BY17" s="5"/>
-      <c r="BZ17" s="5"/>
-      <c r="CA17" s="5"/>
-      <c r="CB17" s="5"/>
-      <c r="CC17" s="5"/>
-      <c r="CD17" s="5"/>
-      <c r="CE17" s="5"/>
-      <c r="CF17" s="5"/>
-      <c r="CG17" s="5"/>
-      <c r="CH17" s="5"/>
-      <c r="CI17" s="5"/>
-      <c r="CJ17" s="5"/>
-      <c r="CK17" s="5"/>
-      <c r="CL17" s="5"/>
-      <c r="CM17" s="5"/>
-      <c r="CN17" s="5"/>
-      <c r="CO17" s="5"/>
-      <c r="CP17" s="5"/>
-      <c r="CQ17" s="5"/>
-      <c r="CR17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+      <c r="BJ17" s="4"/>
+      <c r="BK17" s="4"/>
+      <c r="BL17" s="4"/>
+      <c r="BM17" s="4"/>
+      <c r="BN17" s="4"/>
+      <c r="BO17" s="4"/>
+      <c r="BP17" s="4"/>
+      <c r="BQ17" s="4"/>
+      <c r="BR17" s="4"/>
+      <c r="BS17" s="4"/>
+      <c r="BT17" s="4"/>
+      <c r="BU17" s="4"/>
+      <c r="BV17" s="4"/>
+      <c r="BW17" s="4"/>
+      <c r="BX17" s="4"/>
+      <c r="BY17" s="4"/>
+      <c r="BZ17" s="4"/>
+      <c r="CA17" s="4"/>
+      <c r="CB17" s="4"/>
+      <c r="CC17" s="4"/>
+      <c r="CD17" s="4"/>
+      <c r="CE17" s="4"/>
+      <c r="CF17" s="4"/>
+      <c r="CG17" s="4"/>
+      <c r="CH17" s="4"/>
+      <c r="CI17" s="4"/>
+      <c r="CJ17" s="4"/>
+      <c r="CK17" s="4"/>
+      <c r="CL17" s="4"/>
+      <c r="CM17" s="4"/>
+      <c r="CN17" s="4"/>
+      <c r="CO17" s="4"/>
+      <c r="CP17" s="4"/>
+      <c r="CQ17" s="4"/>
+      <c r="CR17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="BW3:CG3"/>
+    <mergeCell ref="CH3:CR3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:P4"/>
+    <mergeCell ref="Q4:AM4"/>
+    <mergeCell ref="AN4:BK4"/>
+    <mergeCell ref="BL4:BV4"/>
+    <mergeCell ref="BW4:CG4"/>
+    <mergeCell ref="CH4:CR4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:P3"/>
+    <mergeCell ref="Q3:AM3"/>
+    <mergeCell ref="AN3:BK3"/>
+    <mergeCell ref="BL3:BV3"/>
+    <mergeCell ref="CH5:CR5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:P6"/>
+    <mergeCell ref="Q6:AM6"/>
+    <mergeCell ref="AN6:BK6"/>
+    <mergeCell ref="BL6:BV6"/>
+    <mergeCell ref="BW6:CG6"/>
+    <mergeCell ref="CH6:CR6"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:P5"/>
+    <mergeCell ref="Q5:AM5"/>
+    <mergeCell ref="AN5:BK5"/>
+    <mergeCell ref="BL5:BV5"/>
+    <mergeCell ref="BW5:CG5"/>
+    <mergeCell ref="CH7:CR7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:P8"/>
+    <mergeCell ref="Q8:AM8"/>
+    <mergeCell ref="AN8:BK8"/>
+    <mergeCell ref="BL8:BV8"/>
+    <mergeCell ref="BW8:CG8"/>
+    <mergeCell ref="CH8:CR8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:P7"/>
+    <mergeCell ref="Q7:AM7"/>
+    <mergeCell ref="AN7:BK7"/>
+    <mergeCell ref="BL7:BV7"/>
+    <mergeCell ref="BW7:CG7"/>
+    <mergeCell ref="CH9:CR9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:P10"/>
+    <mergeCell ref="Q10:AM10"/>
+    <mergeCell ref="AN10:BK10"/>
+    <mergeCell ref="BL10:BV10"/>
+    <mergeCell ref="BW10:CG10"/>
+    <mergeCell ref="CH10:CR10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:P9"/>
+    <mergeCell ref="Q9:AM9"/>
+    <mergeCell ref="AN9:BK9"/>
+    <mergeCell ref="BL9:BV9"/>
+    <mergeCell ref="BW9:CG9"/>
+    <mergeCell ref="CH11:CR11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:P12"/>
+    <mergeCell ref="Q12:AM12"/>
+    <mergeCell ref="AN12:BK12"/>
+    <mergeCell ref="BL12:BV12"/>
+    <mergeCell ref="BW12:CG12"/>
+    <mergeCell ref="CH12:CR12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:P11"/>
+    <mergeCell ref="Q11:AM11"/>
+    <mergeCell ref="AN11:BK11"/>
+    <mergeCell ref="BL11:BV11"/>
+    <mergeCell ref="BW11:CG11"/>
+    <mergeCell ref="CH13:CR13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:P14"/>
+    <mergeCell ref="Q14:AM14"/>
+    <mergeCell ref="AN14:BK14"/>
+    <mergeCell ref="BL14:BV14"/>
+    <mergeCell ref="BW14:CG14"/>
+    <mergeCell ref="CH14:CR14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:P13"/>
+    <mergeCell ref="Q13:AM13"/>
+    <mergeCell ref="AN13:BK13"/>
+    <mergeCell ref="BL13:BV13"/>
+    <mergeCell ref="BW13:CG13"/>
     <mergeCell ref="CH17:CR17"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="F17:P17"/>
@@ -3387,90 +3480,6 @@
     <mergeCell ref="AN15:BK15"/>
     <mergeCell ref="BL15:BV15"/>
     <mergeCell ref="BW15:CG15"/>
-    <mergeCell ref="CH13:CR13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:P14"/>
-    <mergeCell ref="Q14:AM14"/>
-    <mergeCell ref="AN14:BK14"/>
-    <mergeCell ref="BL14:BV14"/>
-    <mergeCell ref="BW14:CG14"/>
-    <mergeCell ref="CH14:CR14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:P13"/>
-    <mergeCell ref="Q13:AM13"/>
-    <mergeCell ref="AN13:BK13"/>
-    <mergeCell ref="BL13:BV13"/>
-    <mergeCell ref="BW13:CG13"/>
-    <mergeCell ref="CH11:CR11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:P12"/>
-    <mergeCell ref="Q12:AM12"/>
-    <mergeCell ref="AN12:BK12"/>
-    <mergeCell ref="BL12:BV12"/>
-    <mergeCell ref="BW12:CG12"/>
-    <mergeCell ref="CH12:CR12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:P11"/>
-    <mergeCell ref="Q11:AM11"/>
-    <mergeCell ref="AN11:BK11"/>
-    <mergeCell ref="BL11:BV11"/>
-    <mergeCell ref="BW11:CG11"/>
-    <mergeCell ref="CH9:CR9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:P10"/>
-    <mergeCell ref="Q10:AM10"/>
-    <mergeCell ref="AN10:BK10"/>
-    <mergeCell ref="BL10:BV10"/>
-    <mergeCell ref="BW10:CG10"/>
-    <mergeCell ref="CH10:CR10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:P9"/>
-    <mergeCell ref="Q9:AM9"/>
-    <mergeCell ref="AN9:BK9"/>
-    <mergeCell ref="BL9:BV9"/>
-    <mergeCell ref="BW9:CG9"/>
-    <mergeCell ref="CH7:CR7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:P8"/>
-    <mergeCell ref="Q8:AM8"/>
-    <mergeCell ref="AN8:BK8"/>
-    <mergeCell ref="BL8:BV8"/>
-    <mergeCell ref="BW8:CG8"/>
-    <mergeCell ref="CH8:CR8"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:P7"/>
-    <mergeCell ref="Q7:AM7"/>
-    <mergeCell ref="AN7:BK7"/>
-    <mergeCell ref="BL7:BV7"/>
-    <mergeCell ref="BW7:CG7"/>
-    <mergeCell ref="CH5:CR5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:P6"/>
-    <mergeCell ref="Q6:AM6"/>
-    <mergeCell ref="AN6:BK6"/>
-    <mergeCell ref="BL6:BV6"/>
-    <mergeCell ref="BW6:CG6"/>
-    <mergeCell ref="CH6:CR6"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:P5"/>
-    <mergeCell ref="Q5:AM5"/>
-    <mergeCell ref="AN5:BK5"/>
-    <mergeCell ref="BL5:BV5"/>
-    <mergeCell ref="BW5:CG5"/>
-    <mergeCell ref="BW3:CG3"/>
-    <mergeCell ref="CH3:CR3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:P4"/>
-    <mergeCell ref="Q4:AM4"/>
-    <mergeCell ref="AN4:BK4"/>
-    <mergeCell ref="BL4:BV4"/>
-    <mergeCell ref="BW4:CG4"/>
-    <mergeCell ref="CH4:CR4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:P3"/>
-    <mergeCell ref="Q3:AM3"/>
-    <mergeCell ref="AN3:BK3"/>
-    <mergeCell ref="BL3:BV3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
